--- a/886.xlsx
+++ b/886.xlsx
@@ -441,7 +441,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -520,7 +520,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1"/>
+    <row r="4" spans="1:9" ht="24" customHeight="1">
+      <c r="I4" s="1">
+        <v>1323</v>
+      </c>
+    </row>
     <row r="5" spans="1:9" ht="24" customHeight="1"/>
     <row r="6" spans="1:9" ht="24" customHeight="1"/>
     <row r="7" spans="1:9" ht="24" customHeight="1"/>

--- a/886.xlsx
+++ b/886.xlsx
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -520,11 +520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1">
-      <c r="I4" s="1">
-        <v>1323</v>
-      </c>
-    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1"/>
     <row r="5" spans="1:9" ht="24" customHeight="1"/>
     <row r="6" spans="1:9" ht="24" customHeight="1"/>
     <row r="7" spans="1:9" ht="24" customHeight="1"/>
@@ -548,7 +544,6 @@
     <row r="25" ht="24" customHeight="1"/>
     <row r="26" ht="24" customHeight="1"/>
     <row r="27" ht="24" customHeight="1"/>
-    <row r="28" ht="24" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/886.xlsx
+++ b/886.xlsx
@@ -441,7 +441,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -518,6 +518,9 @@
       </c>
       <c r="H3" s="1">
         <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1"/>

--- a/886.xlsx
+++ b/886.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>旺旺</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,10 @@
   </si>
   <si>
     <t>关闭申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>our</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,7 +445,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -519,8 +523,8 @@
       <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="1">
-        <v>123</v>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1"/>

--- a/886.xlsx
+++ b/886.xlsx
@@ -82,7 +82,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>our</t>
+    <t>our2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
